--- a/ResultadoEleicoesDistritos/BRAGA_VILA NOVA DE FAMALICÃO.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGA_VILA NOVA DE FAMALICÃO.xlsx
@@ -597,64 +597,64 @@
         <v>36157</v>
       </c>
       <c r="H2" t="n">
-        <v>1349</v>
+        <v>1379</v>
       </c>
       <c r="I2" t="n">
-        <v>3574</v>
+        <v>3638</v>
       </c>
       <c r="J2" t="n">
-        <v>14875</v>
+        <v>14741</v>
       </c>
       <c r="K2" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L2" t="n">
-        <v>4081</v>
+        <v>4069</v>
       </c>
       <c r="M2" t="n">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="N2" t="n">
-        <v>2619</v>
+        <v>2624</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="Q2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R2" t="n">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="S2" t="n">
-        <v>1631</v>
+        <v>1585</v>
       </c>
       <c r="T2" t="n">
-        <v>2623</v>
+        <v>2547</v>
       </c>
       <c r="U2" t="n">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="V2" t="n">
-        <v>23155</v>
+        <v>23409</v>
       </c>
       <c r="W2" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="X2" t="n">
-        <v>23128</v>
+        <v>23024</v>
       </c>
       <c r="Y2" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AA2" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
